--- a/result/export_meow_province.xlsx
+++ b/result/export_meow_province.xlsx
@@ -27,15 +27,6 @@
     <t>PROVINCE</t>
   </si>
   <si>
-    <t>less_than_threshold</t>
-  </si>
-  <si>
-    <t>per_ltt</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
     <t>Agulhas</t>
   </si>
   <si>
@@ -223,12 +214,25 @@
   </si>
   <si>
     <t>Western Indian Ocean</t>
+  </si>
+  <si>
+    <t>wilderness_area</t>
+  </si>
+  <si>
+    <t>total_area</t>
+  </si>
+  <si>
+    <t>per_wilderness_area</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -662,7 +666,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -705,12 +709,15 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -738,6 +745,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -750,6 +758,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="43" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1033,28 +1042,29 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
+      <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,15 +1072,15 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2">
         <v>505541.38777763699</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.68115848241862298</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>742178.80394381401</v>
       </c>
     </row>
@@ -1079,15 +1089,15 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2">
         <v>515389.018244659</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.66409705633151395</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>776074.84227031295</v>
       </c>
     </row>
@@ -1096,15 +1106,15 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2">
         <v>1019849.32359628</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.52880880268090302</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>1928578.5683331001</v>
       </c>
     </row>
@@ -1113,15 +1123,15 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
         <v>5408511.2912471397</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.46792628136067199</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>11558468.730415899</v>
       </c>
     </row>
@@ -1130,15 +1140,15 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2">
         <v>492147.49258359702</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.34089236082757901</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>1443703.49452483</v>
       </c>
     </row>
@@ -1147,15 +1157,15 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
         <v>120083.107955272</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.303474956303737</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>395693.63290420902</v>
       </c>
     </row>
@@ -1164,15 +1174,15 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
         <v>1156893.5494517901</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>0.24298808128343499</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>4761112.3283957401</v>
       </c>
     </row>
@@ -1181,15 +1191,15 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2">
         <v>93830.619285405701</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0.23898117731313501</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>392627.65520005801</v>
       </c>
     </row>
@@ -1198,15 +1208,15 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2">
         <v>290468.85893815203</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>0.20919217971043999</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>1388526.3748397001</v>
       </c>
     </row>
@@ -1215,15 +1225,15 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2">
         <v>130885.199724099</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>0.16178504004067201</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>809006.81355454901</v>
       </c>
     </row>
@@ -1232,15 +1242,15 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2">
         <v>1969657.08077428</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>0.15953612689952801</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>12346150.8001552</v>
       </c>
     </row>
@@ -1249,15 +1259,15 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2">
         <v>102396.32002594099</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>0.10252619135471</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>998733.28632368497</v>
       </c>
     </row>
@@ -1266,15 +1276,15 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2">
         <v>475526.068595897</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>8.2472696673985296E-2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>5765860.5547439801</v>
       </c>
     </row>
@@ -1283,15 +1293,15 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2">
         <v>150735.899003725</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>7.9354534998009402E-2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>1899524.6964462299</v>
       </c>
     </row>
@@ -1300,15 +1310,15 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2">
         <v>72993.148486072503</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>7.8014561697750895E-2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>935634.92375778896</v>
       </c>
     </row>
@@ -1317,15 +1327,15 @@
         <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17">
+        <v>58</v>
+      </c>
+      <c r="C17" s="2">
         <v>73565.999916982095</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>7.1285567050437398E-2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>1031990.1062852</v>
       </c>
     </row>
@@ -1334,15 +1344,15 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2">
         <v>120.50838028279099</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>6.9873417721518893E-2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>1724.6670366558999</v>
       </c>
     </row>
@@ -1351,15 +1361,15 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19">
+        <v>34</v>
+      </c>
+      <c r="C19" s="2">
         <v>59582.6615585158</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>5.9408328537259997E-2</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>1002934.48790006</v>
       </c>
     </row>
@@ -1368,15 +1378,15 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2">
         <v>206670.12568672301</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>5.9041212696350397E-2</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>3500438.3590430198</v>
       </c>
     </row>
@@ -1385,15 +1395,15 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2">
         <v>46041.187261086401</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>5.4821355415485599E-2</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>839840.36717342702</v>
       </c>
     </row>
@@ -1402,15 +1412,15 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2">
         <v>20973.697664000701</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>4.5836227757463703E-2</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>457579.05242508597</v>
       </c>
     </row>
@@ -1419,15 +1429,15 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2">
         <v>124851.921467767</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>4.0837591355023399E-2</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>3057279.2695426499</v>
       </c>
     </row>
@@ -1436,15 +1446,15 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24">
+        <v>37</v>
+      </c>
+      <c r="C24" s="2">
         <v>54531.788576228297</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>3.6547673741473503E-2</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>1492072.7639731199</v>
       </c>
     </row>
@@ -1453,15 +1463,15 @@
         <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25">
+        <v>57</v>
+      </c>
+      <c r="C25" s="2">
         <v>54114.3754909009</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>3.4670338339176099E-2</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>1560826.28792098</v>
       </c>
     </row>
@@ -1470,15 +1480,15 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2">
         <v>151604.78189054699</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>3.41502362544856E-2</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>4439347.9670476299</v>
       </c>
     </row>
@@ -1487,15 +1497,15 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="C27" s="2">
         <v>28300.257885541399</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>3.1897512214518801E-2</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>887224.61160027306</v>
       </c>
     </row>
@@ -1504,15 +1514,15 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28">
+        <v>40</v>
+      </c>
+      <c r="C28" s="2">
         <v>30258.955689703002</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>2.98368535212068E-2</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>1014147.00676116</v>
       </c>
     </row>
@@ -1521,15 +1531,15 @@
         <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2">
         <v>25889.217030753101</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>2.6944641109231799E-2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>960829.90772821696</v>
       </c>
     </row>
@@ -1538,15 +1548,15 @@
         <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="C30" s="2">
         <v>143350.831090308</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>2.4948930515865199E-2</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>5745770.5852020504</v>
       </c>
     </row>
@@ -1555,15 +1565,15 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2">
         <v>34047.983675551099</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>1.9339615856401701E-2</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>1760530.50527788</v>
       </c>
     </row>
@@ -1572,15 +1582,15 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32">
+        <v>26</v>
+      </c>
+      <c r="C32" s="2">
         <v>83467.771830218102</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>1.88120739099603E-2</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>4436925.5739541203</v>
       </c>
     </row>
@@ -1589,15 +1599,15 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2">
         <v>21101.192037343299</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>1.8807742899617799E-2</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>1121941.75292411</v>
       </c>
     </row>
@@ -1606,15 +1616,15 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34">
+        <v>44</v>
+      </c>
+      <c r="C34" s="2">
         <v>15625.9199766686</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>1.8116011723673602E-2</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>862547.46436540806</v>
       </c>
     </row>
@@ -1623,15 +1633,15 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35">
+        <v>18</v>
+      </c>
+      <c r="C35" s="2">
         <v>45748.648801704199</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>1.7189791188775901E-2</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>2661384.7893379601</v>
       </c>
     </row>
@@ -1640,15 +1650,15 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36">
+        <v>13</v>
+      </c>
+      <c r="C36" s="2">
         <v>6014.0667754173001</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>1.3801492573205801E-2</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>435754.81010604498</v>
       </c>
     </row>
@@ -1657,15 +1667,15 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2">
         <v>8859.1124490501697</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>1.06159000964796E-2</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>834513.54746527399</v>
       </c>
     </row>
@@ -1674,15 +1684,15 @@
         <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38">
+        <v>63</v>
+      </c>
+      <c r="C38" s="2">
         <v>58810.709325399897</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>9.9534332967594202E-3</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>5908585.2662062999</v>
       </c>
     </row>
@@ -1691,15 +1701,15 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39">
+        <v>51</v>
+      </c>
+      <c r="C39" s="2">
         <v>53172.139676950697</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>9.9458491066539995E-3</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>5346163.9229351804</v>
       </c>
     </row>
@@ -1708,15 +1718,15 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="C40" s="2">
         <v>12407.9969234651</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>8.7944939251208398E-3</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>1410882.42588042</v>
       </c>
     </row>
@@ -1725,15 +1735,15 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41">
+        <v>47</v>
+      </c>
+      <c r="C41" s="2">
         <v>16732.326627525901</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>8.5161778934937701E-3</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>1964769.50537977</v>
       </c>
     </row>
@@ -1742,15 +1752,15 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42">
+        <v>17</v>
+      </c>
+      <c r="C42" s="2">
         <v>20241.041641846601</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>8.4076134623378498E-3</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>2407465.7728399299</v>
       </c>
     </row>
@@ -1759,15 +1769,15 @@
         <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43">
+        <v>33</v>
+      </c>
+      <c r="C43" s="2">
         <v>5088.4226949842596</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>6.8761085025612796E-3</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <v>740014.89259351802</v>
       </c>
     </row>
@@ -1776,15 +1786,15 @@
         <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44">
+        <v>15</v>
+      </c>
+      <c r="C44" s="2">
         <v>18559.1638126824</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>5.7126314929340002E-3</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>3248794.15653511</v>
       </c>
     </row>
@@ -1793,15 +1803,15 @@
         <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45">
+        <v>38</v>
+      </c>
+      <c r="C45" s="2">
         <v>9945.4343698602697</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>5.4232687706098704E-3</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>1833845.0094447101</v>
       </c>
     </row>
@@ -1810,15 +1820,15 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46">
+        <v>43</v>
+      </c>
+      <c r="C46" s="2">
         <v>5384.4541508963403</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>5.2280909413107302E-3</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <v>1029908.28035336</v>
       </c>
     </row>
@@ -1827,15 +1837,15 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2">
         <v>9854.6164600819393</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>5.0952382887403998E-3</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>1934083.53086428</v>
       </c>
     </row>
@@ -1844,15 +1854,15 @@
         <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48">
+        <v>27</v>
+      </c>
+      <c r="C48" s="2">
         <v>11195.0538784448</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>4.4587287614785299E-3</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="2">
         <v>2510817.4274168098</v>
       </c>
     </row>
@@ -1861,15 +1871,15 @@
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49">
+        <v>60</v>
+      </c>
+      <c r="C49" s="2">
         <v>1558.74970148393</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>4.2130356278839197E-3</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <v>369982.55869648303</v>
       </c>
     </row>
@@ -1878,15 +1888,15 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50">
+        <v>22</v>
+      </c>
+      <c r="C50" s="2">
         <v>2904.4266146417799</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>3.9431316479587204E-3</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>736578.65725719405</v>
       </c>
     </row>
@@ -1895,15 +1905,15 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2">
         <v>3530.5462426328099</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>3.88838236369022E-3</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>907973.01098809298</v>
       </c>
     </row>
@@ -1912,15 +1922,15 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2">
         <v>2544.6479720583702</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>3.68570568489113E-3</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <v>690409.97562276502</v>
       </c>
     </row>
@@ -1929,15 +1939,15 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53">
+        <v>62</v>
+      </c>
+      <c r="C53" s="2">
         <v>15479.2141224113</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>3.2935540283328098E-3</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
         <v>4699851.2820045901</v>
       </c>
     </row>
@@ -1946,15 +1956,15 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54">
+        <v>53</v>
+      </c>
+      <c r="C54" s="2">
         <v>15793.5838101056</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>3.2063100806417298E-3</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <v>4925781.7905573798</v>
       </c>
     </row>
@@ -1963,15 +1973,15 @@
         <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55">
+        <v>48</v>
+      </c>
+      <c r="C55" s="2">
         <v>2133.3476306584098</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>3.2060283306343E-3</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>665417.58545107197</v>
       </c>
     </row>
@@ -1980,15 +1990,15 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56">
+        <v>59</v>
+      </c>
+      <c r="C56" s="2">
         <v>3415.2773571449202</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>3.1084014264788698E-3</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
         <v>1098724.67823876</v>
       </c>
     </row>
@@ -1997,15 +2007,15 @@
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57">
+        <v>52</v>
+      </c>
+      <c r="C57" s="2">
         <v>6505.7060370057998</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>2.94732711058292E-3</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <v>2207324.0576676601</v>
       </c>
     </row>
@@ -2014,15 +2024,15 @@
         <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58">
+        <v>23</v>
+      </c>
+      <c r="C58" s="2">
         <v>7841.7772097063198</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>2.7534770313102199E-3</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>2847954.4664931698</v>
       </c>
     </row>
@@ -2031,15 +2041,15 @@
         <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59">
+        <v>31</v>
+      </c>
+      <c r="C59" s="2">
         <v>5612.3721744746599</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>1.9101030094449999E-3</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>2938256.2860342101</v>
       </c>
     </row>
@@ -2048,15 +2058,15 @@
         <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C60">
+        <v>19</v>
+      </c>
+      <c r="C60" s="2">
         <v>2220.67254390681</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>1.57736337787746E-3</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="2">
         <v>1407838.2794045799</v>
       </c>
     </row>
@@ -2065,15 +2075,15 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61">
+        <v>61</v>
+      </c>
+      <c r="C61" s="2">
         <v>707.33179731203995</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>5.4986681003934602E-4</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <v>1286369.3250760599</v>
       </c>
     </row>
@@ -2082,15 +2092,15 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62">
+        <v>14</v>
+      </c>
+      <c r="C62" s="2">
         <v>348.426403861116</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>5.2478318168546097E-4</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="2">
         <v>663943.54091543995</v>
       </c>
     </row>
@@ -2099,15 +2109,15 @@
         <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63">
+        <v>56</v>
+      </c>
+      <c r="C63" s="2">
         <v>103.04339763311199</v>
       </c>
       <c r="D63" s="1">
         <v>8.07458176403608E-5</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="2">
         <v>1276145.3242329301</v>
       </c>
     </row>
@@ -2116,15 +2126,15 @@
         <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
-      </c>
-      <c r="C64">
+        <v>39</v>
+      </c>
+      <c r="C64" s="2">
         <v>49.775200551587901</v>
       </c>
       <c r="D64" s="1">
         <v>4.9251081147636597E-5</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="2">
         <v>1010641.78474337</v>
       </c>
     </row>
